--- a/biology/Botanique/Jean-Henri-Guillaume_Krombach/Jean-Henri-Guillaume_Krombach.xlsx
+++ b/biology/Botanique/Jean-Henri-Guillaume_Krombach/Jean-Henri-Guillaume_Krombach.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Henri-Guillaume Krombach ou Johann Heinrich Wilhelm Krombach, né le 16 septembre 1791 à Moers près de Krefeld en Prusse, décédé le 23 février 1881 à Luxembourg, était un botaniste, agronome et pharmacien luxembourgeois.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Henri-Guillaume Krombach était professeur de botanique et d'agronomie dans les collèges de  Diekirch et Ettelbruck.
-Par la loi de naturalisation du 6 mars 1850, il obtient la nationalité luxembourgeoise[1].
+Par la loi de naturalisation du 6 mars 1850, il obtient la nationalité luxembourgeoise.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Engagements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Président de la Société de botanique du Grand-Duché de Luxembourg (à partir de 1872)[2] ;
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Président de la Société de botanique du Grand-Duché de Luxembourg (à partir de 1872) ;
 membre de la Société de chimie de France ;
 membre de l'Institut royal grand-ducal, section des sciences naturelles ;
 membre de la Société médicale ;
@@ -578,7 +594,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Croix de fer
 Médaille de Sainte-Hélène</t>
@@ -609,7 +627,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Krombach, J.-H.-G., 1875. Flore du Grand-Duché de Luxembourg. Plantes phanérogames, Joris, Lëtzebuerg, 564 p. (Lire en ligne sur archive.org)</t>
         </is>
